--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -451,547 +451,737 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>009486</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>光大保德信瑞和混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>72.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>009487</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>光大保德信瑞和混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>72.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000652</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009931</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008966</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1001,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1212,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009931</t>
+          <t>010549</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合A</t>
+          <t>富国均衡策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>73.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>52.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5966</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009939</t>
+          <t>008966</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>淳厚欣享一年持有期混合C</t>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>18.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>84.98</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.53</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008966</t>
+          <t>163409</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+          <t>兴全绿色投资混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>31.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9213</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008967</t>
+          <t>005760</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+          <t>富国周期优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001827</t>
+          <t>009931</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国研究优选沪港深灵活配置混合</t>
+          <t>淳厚欣享一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>77.43</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6858</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005760</t>
+          <t>008704</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国周期优势混合</t>
+          <t>广发高股息优享混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.76</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3762</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005840</t>
+          <t>008186</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国产业驱动混合</t>
+          <t>淳厚信睿核心精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.11</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000916</t>
+          <t>005840</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源股息率100强等权重股票</t>
+          <t>富国产业驱动混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010549</t>
+          <t>009939</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国均衡策略混合</t>
+          <t>淳厚欣享一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>52.12</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>008187</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>淳厚信睿核心精选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515870</t>
+          <t>008705</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实中证先进制造100策略ETF</t>
+          <t>广发高股息优享混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>005063</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>广发中证全指家用电器指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>163409</t>
+          <t>008967</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>兴全绿色投资混合(LOF)</t>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.05</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005063</t>
+          <t>005064</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数A</t>
+          <t>广发中证全指家用电器指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2.11</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005064</t>
+          <t>001827</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数C</t>
+          <t>富国研究优选沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>000916</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>前海开源股息率100强等权重股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.97</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>515870</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>嘉实中证先进制造100策略ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>71.40</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008186</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合A</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>90.44</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1742,26 +2192,30 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008187</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2200,7 +2201,6 @@
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>91.02</t>
@@ -2216,6 +2216,442 @@
       </c>
       <c r="H27" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163409</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全绿色投资混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8930</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2657,4 +2658,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3170,4 +3171,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3179,7 +3180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3190,17 +3191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3210,14 +3231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.03</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6395</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3226,14 +3269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.43</v>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3242,14 +3307,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.42</v>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3258,13 +3345,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3806,7 +3807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3817,17 +3818,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3837,14 +3858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.79</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3853,14 +3896,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.03</v>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3869,14 +3934,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.43</v>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3885,14 +3972,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>8.42</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="6">
@@ -3901,13 +4110,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4015,7 +4016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4026,17 +4027,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4046,14 +4067,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4062,14 +4105,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.79</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4078,14 +4143,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.03</v>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4728</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4094,14 +4181,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.43</v>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4110,14 +4219,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.42</v>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4126,13 +4257,677 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>3.09</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.79</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4.03</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.43</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>8.42</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.58</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2211,7 +2626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2723,7 +3138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3159,7 +3574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4196,7 +4611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
+++ b/数据整理/stocks/A股/深证主板/000921-海信家电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0.55</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>3.09</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.79</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>4.03</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>3.43</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>8.42</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,770 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1374,1692 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007523</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007524</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016130</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016131</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰君安品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>017461</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +4235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,7 +4443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2626,7 +5069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3138,7 +5581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3574,7 +6017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4609,744 +7052,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008966</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8964</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008967</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时成长优选两年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8964</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000652</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时裕隆灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8569</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009931</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5171</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3206</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008186</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2786</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2038</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009939</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>淳厚欣享一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.51</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1334</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1243</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009486</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0944</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008187</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>淳厚信睿核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0892</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0836</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009487</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>